--- a/excel/Thông tin phân tích khuôn mặt.xlsx
+++ b/excel/Thông tin phân tích khuôn mặt.xlsx
@@ -22,19 +22,19 @@
     <t>Note</t>
   </si>
   <si>
-    <t>D:/Baitapcacmon/Laptrinhhethong/face/image_detection/obama-240p_pic0.png</t>
+    <t>D:/Baitapcacmon/Laptrinhhethong/face_detection/image_detection/obama-240p_pic0.png</t>
   </si>
   <si>
     <t>Ảnh khuôn mặt thứ 1 cắt từ obama-240p.jpg</t>
   </si>
   <si>
-    <t>D:/Baitapcacmon/Laptrinhhethong/face/image_detection/obama-480p_pic0.png</t>
+    <t>D:/Baitapcacmon/Laptrinhhethong/face_detection/image_detection/obama-480p_pic0.png</t>
   </si>
   <si>
     <t>Ảnh khuôn mặt thứ 1 cắt từ obama-480p.jpg</t>
   </si>
   <si>
-    <t>D:/Baitapcacmon/Laptrinhhethong/face/image_detection/obama-720p_pic0.png</t>
+    <t>D:/Baitapcacmon/Laptrinhhethong/face_detection/image_detection/obama-720p_pic0.png</t>
   </si>
   <si>
     <t>Ảnh khuôn mặt thứ 1 cắt từ obama-720p.jpg</t>
